--- a/COGFA_GenFundExp.xlsx
+++ b/COGFA_GenFundExp.xlsx
@@ -1,196 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Interns-Fellowships\Alexis 2020\GDP Project\GDP Data Vis\IL-Budget-Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6FD8E5-2F10-425C-ACF2-BCBCAB2F42E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COGFA_GENFUNDEXP" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL FUNDS - BUDGET PLAN FY 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Expenditures, Revenues/Resources, and Resulting Estimated Surplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{Amounts per Legislative Staffs and GOMB}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ in millions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenues/Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue Source FY 2020 Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Income Taxes (Net):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19,702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Income Taxes (Net):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Tax (Net):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8,543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Other State Sources:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3,605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfers In:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Sources:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3,697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interfund Borrowing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Revenues:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40,287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expenditures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose FY 2020 Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-12 Education:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8,883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higher Education:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8,113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Services:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7,464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Insurance:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government Services:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Safety:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic Development:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment and Culture:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt Service /Interfund Borrowing Repay:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statutory Transfers Out:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lapsed Appropriations:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40,136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year Estimated "Surplus":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$151</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+  <si>
+    <t>GENERAL FUNDS - BUDGET PLAN FY 2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Expenditures, Revenues/Resources, and Resulting Estimated Surplus</t>
+  </si>
+  <si>
+    <t>{Amounts per Legislative Staffs and GOMB}</t>
+  </si>
+  <si>
+    <t>$ in millions</t>
+  </si>
+  <si>
+    <t>Revenues/Resources</t>
+  </si>
+  <si>
+    <t>Personal Income Taxes (Net):</t>
+  </si>
+  <si>
+    <t>$19,702</t>
+  </si>
+  <si>
+    <t>Corporate Income Taxes (Net):</t>
+  </si>
+  <si>
+    <t>$2,444</t>
+  </si>
+  <si>
+    <t>Sales Tax (Net):</t>
+  </si>
+  <si>
+    <t>$8,543</t>
+  </si>
+  <si>
+    <t>All Other State Sources:</t>
+  </si>
+  <si>
+    <t>$3,605</t>
+  </si>
+  <si>
+    <t>Transfers In:</t>
+  </si>
+  <si>
+    <t>$2,196</t>
+  </si>
+  <si>
+    <t>Federal Sources:</t>
+  </si>
+  <si>
+    <t>$3,697</t>
+  </si>
+  <si>
+    <t>Interfund Borrowing:</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>Total Revenues:</t>
+  </si>
+  <si>
+    <t>$40,287</t>
+  </si>
+  <si>
+    <t>Expenditures</t>
+  </si>
+  <si>
+    <t>K-12 Education:</t>
+  </si>
+  <si>
+    <t>$8,883</t>
+  </si>
+  <si>
+    <t>Higher Education:</t>
+  </si>
+  <si>
+    <t>$1,943</t>
+  </si>
+  <si>
+    <t>Pensions:</t>
+  </si>
+  <si>
+    <t>$8,113</t>
+  </si>
+  <si>
+    <t>Human Services:</t>
+  </si>
+  <si>
+    <t>$6,565</t>
+  </si>
+  <si>
+    <t>Healthcare:</t>
+  </si>
+  <si>
+    <t>$7,464</t>
+  </si>
+  <si>
+    <t>Group Insurance:</t>
+  </si>
+  <si>
+    <t>$2,028</t>
+  </si>
+  <si>
+    <t>Government Services:</t>
+  </si>
+  <si>
+    <t>$1,468</t>
+  </si>
+  <si>
+    <t>Public Safety:</t>
+  </si>
+  <si>
+    <t>$1,867</t>
+  </si>
+  <si>
+    <t>Economic Development:</t>
+  </si>
+  <si>
+    <t>$68</t>
+  </si>
+  <si>
+    <t>Environment and Culture:</t>
+  </si>
+  <si>
+    <t>$61</t>
+  </si>
+  <si>
+    <t>Debt Service /Interfund Borrowing Repay:</t>
+  </si>
+  <si>
+    <t>$2,286</t>
+  </si>
+  <si>
+    <t>Statutory Transfers Out:</t>
+  </si>
+  <si>
+    <t>$364</t>
+  </si>
+  <si>
+    <t>Lapsed Appropriations:</t>
+  </si>
+  <si>
+    <t>-$974</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>$40,136</t>
+  </si>
+  <si>
+    <t>Fiscal Year Estimated "Surplus":</t>
+  </si>
+  <si>
+    <t>$151</t>
+  </si>
+  <si>
+    <t>FY 2020 ESTIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Source </t>
+  </si>
+  <si>
+    <t>FY 2020  AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,16 +209,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,17 +247,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,271 +625,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>